--- a/员工归档/工作输出/屈圣冰/分班册/任课老师课表/朱芙德.xlsx
+++ b/员工归档/工作输出/屈圣冰/分班册/任课老师课表/朱芙德.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>课程表</t>
   </si>
@@ -93,7 +93,7 @@
     <t>14:00~14:40</t>
   </si>
   <si>
-    <t>数学（一对二）</t>
+    <t>数学（初三）</t>
   </si>
   <si>
     <t>14:50~15:30</t>
@@ -102,24 +102,23 @@
     <t>15:40~16:20</t>
   </si>
   <si>
-    <t>数学（初三）</t>
-  </si>
-  <si>
     <t>16:30~17:10</t>
+  </si>
+  <si>
+    <t>代课老师：朱芙德</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,21 +135,360 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -247,60 +585,347 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -590,493 +1215,475 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C12" sqref="C12:N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1"/>
   <cols>
     <col min="1" max="14" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="2" t="s">
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N4" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="3" t="s">
+      <c r="C5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
-      <c r="B5" s="2" t="s">
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A6" s="6"/>
+      <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="3" t="s">
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
-      <c r="B6" s="2" t="s">
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A7" s="6"/>
+      <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="3" t="s">
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11"/>
-      <c r="B7" s="2" t="s">
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A8" s="7"/>
+      <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" s="3" t="s">
+      <c r="C8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="11"/>
     </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N9" s="3" t="s">
+      <c r="C10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
-      <c r="B10" s="2" t="s">
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A11" s="6"/>
+      <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N10" s="3" t="s">
+      <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10"/>
-      <c r="B11" s="2" t="s">
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A12" s="6"/>
+      <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A13" s="7"/>
+      <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
     </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11"/>
-      <c r="B12" s="2" t="s">
+    <row r="15" customHeight="1" spans="12:12">
+      <c r="L15" s="12" t="s">
         <v>29</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:N1"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="A8:N8"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C3:N3"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A3:B4"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="landscape"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>